--- a/Failed cases.xlsx
+++ b/Failed cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ahtsham\Projects\ChatGPT-CRS\Ahtsham\UMAP online data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ahtsham\Projects\Online data\UMAP_ChatGPT_CRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27F59E8-C74D-4230-B8B4-2E24D48A9C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CCFC64-16F7-4865-BB60-FED72D1005E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AE1A2D3D-EE6D-4109-A325-C94D6488DFD0}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="236">
   <si>
     <t>our_rating</t>
   </si>
@@ -860,6 +860,9 @@
   </si>
   <si>
     <t>Neutral</t>
+  </si>
+  <si>
+    <t>Red Hihglighted text (other tab sheet) represents cases of hallucinations</t>
   </si>
 </sst>
 </file>
@@ -980,13 +983,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1301,125 +1306,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A33354-AEAD-42AD-BF54-B7316A8981DB}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3">
         <v>42</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4">
         <v>35</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>230</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>231</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>232</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>233</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9">
         <v>20</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10">
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
